--- a/bh3/502357933496858325_2021-03-15_18-05-21.xlsx
+++ b/bh3/502357933496858325_2021-03-15_18-05-21.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -546,10 +562,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-04-16 18:21:33</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44302.76496527778</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -621,10 +635,8 @@
           <t>4270522013</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-03-20 17:38:07</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44275.73480324074</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -700,10 +712,8 @@
           <t>4270028445</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:58:30</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44272.790625</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -767,10 +777,8 @@
           <t>4270028445</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-03-17 17:22:11</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44272.72373842593</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -842,10 +850,8 @@
           <t>4270883858</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-03-17 07:04:33</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44272.29482638889</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -913,10 +919,8 @@
           <t>4270211940</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-03-17 01:28:36</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44272.06152777778</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -984,10 +988,8 @@
           <t>4270883858</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:56:36</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44272.03930555555</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1059,10 +1061,8 @@
           <t>4270000690</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:26:13</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44271.80987268518</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1130,10 +1130,8 @@
           <t>4274518752</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:09:00</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44271.79791666667</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1205,10 +1203,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-03-16 17:36:03</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44271.73336805555</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1268,10 +1264,8 @@
           <t>4272038418</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:14:17</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44271.63491898148</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1347,10 +1341,8 @@
           <t>4273529235</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:26:34</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44271.60178240741</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1422,10 +1414,8 @@
           <t>4273532479</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:25:57</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44271.60135416667</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1497,10 +1487,8 @@
           <t>4273532479</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:25:27</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44271.60100694445</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1572,10 +1560,8 @@
           <t>4273443443</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-03-16 13:54:24</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44271.57944444445</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
@@ -1643,10 +1629,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-03-16 13:45:52</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44271.57351851852</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1718,10 +1702,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-03-16 13:27:48</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44271.56097222222</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1789,10 +1771,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-03-16 13:26:10</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44271.55983796297</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1869,10 +1849,8 @@
           <t>4270211940</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-03-16 12:56:21</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44271.53913194445</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1944,10 +1922,8 @@
           <t>4273241005</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-03-16 12:56:21</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44271.53913194445</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2011,10 +1987,8 @@
           <t>4273041867</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-03-16 12:11:13</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44271.50778935185</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2090,10 +2064,8 @@
           <t>4272838551</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-03-16 11:13:11</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44271.46748842593</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2161,10 +2133,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-03-16 11:02:48</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44271.46027777778</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2236,10 +2206,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-03-16 10:20:17</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44271.43075231482</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2299,10 +2267,8 @@
           <t>4272480070</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-03-16 08:59:13</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44271.37445601852</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2366,10 +2332,8 @@
           <t>4270875506</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-03-16 08:16:17</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44271.3446412037</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
@@ -2442,10 +2406,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-03-16 07:54:28</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44271.32949074074</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2513,10 +2475,8 @@
           <t>4270242909</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-03-16 07:18:13</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44271.30431712963</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2584,10 +2544,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-03-16 07:11:07</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44271.29938657407</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
@@ -2655,10 +2613,8 @@
           <t>4272038418</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-03-16 01:49:37</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44271.07612268518</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2730,10 +2686,8 @@
           <t>4272037887</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-03-16 01:48:41</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44271.07547453704</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2809,10 +2763,8 @@
           <t>4270524016</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-03-16 01:37:07</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44271.06744212963</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2888,10 +2840,8 @@
           <t>4270119253</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-03-16 01:35:51</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44271.0665625</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2967,10 +2917,8 @@
           <t>4270067509</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-03-16 00:49:06</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44271.03409722223</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3034,10 +2982,8 @@
           <t>4271863171</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-03-16 00:40:04</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44271.02782407407</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3109,10 +3055,8 @@
           <t>4270119253</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-03-16 00:35:42</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44271.02479166666</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3180,10 +3124,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-03-16 00:29:18</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44271.02034722222</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3255,10 +3197,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-03-16 00:27:38</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44271.01918981481</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3334,10 +3274,8 @@
           <t>4270028445</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-03-16 00:20:10</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44271.01400462963</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3401,10 +3339,8 @@
           <t>4271772956</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-03-16 00:15:56</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44271.01106481482</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3476,10 +3412,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-03-15 23:51:55</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44270.99438657407</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
@@ -3555,10 +3489,8 @@
           <t>4271658494</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-03-15 23:50:54</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44270.99368055556</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3622,10 +3554,8 @@
           <t>4270053636</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-03-15 23:50:00</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44270.99305555555</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3689,10 +3619,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-03-15 23:27:49</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44270.97765046296</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3764,10 +3692,8 @@
           <t>4270522013</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-03-15 23:26:52</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44270.97699074074</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
@@ -3839,10 +3765,8 @@
           <t>4271529470</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-03-15 23:26:12</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44270.97652777778</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3914,10 +3838,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-03-15 23:17:03</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44270.97017361111</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3995,10 +3917,8 @@
           <t>4271467188</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-03-15 23:13:44</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44270.96787037037</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4066,10 +3986,8 @@
           <t>4270030844</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-03-15 23:12:43</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44270.96716435185</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4137,10 +4055,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-03-15 23:05:42</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44270.96229166666</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4208,10 +4124,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-03-15 23:04:39</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44270.9615625</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4279,10 +4193,8 @@
           <t>4270050554</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-03-15 23:02:59</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44270.96040509259</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4350,10 +4262,8 @@
           <t>4271402289</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-03-15 23:02:39</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44270.96017361111</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4413,10 +4323,8 @@
           <t>4270030844</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-03-15 22:58:20</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44270.95717592593</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4485,10 +4393,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-03-15 22:51:35</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44270.95248842592</v>
       </c>
       <c r="I56" t="n">
         <v>1</v>
@@ -4548,10 +4454,8 @@
           <t>4270812169</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-03-15 22:50:04</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44270.95143518518</v>
       </c>
       <c r="I57" t="n">
         <v>1</v>
@@ -4619,10 +4523,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-03-15 22:48:19</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44270.9502199074</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4698,10 +4600,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-03-15 22:39:18</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44270.94395833334</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4769,10 +4669,8 @@
           <t>4271243178</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-03-15 22:33:07</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44270.93966435185</v>
       </c>
       <c r="I60" t="n">
         <v>2</v>
@@ -4841,10 +4739,8 @@
           <t>4271229333</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-03-15 22:31:02</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44270.93821759259</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4916,10 +4812,8 @@
           <t>4271187840</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-03-15 22:23:52</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44270.93324074074</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4987,10 +4881,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-03-15 22:21:47</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44270.93179398148</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5058,10 +4950,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-03-15 22:21:26</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44270.93155092592</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5129,10 +5019,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-03-15 22:15:41</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44270.92755787037</v>
       </c>
       <c r="I65" t="n">
         <v>1</v>
@@ -5204,10 +5092,8 @@
           <t>4271133584</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-03-15 22:13:44</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44270.9262037037</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5275,10 +5161,8 @@
           <t>4270242909</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-03-15 22:12:19</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44270.92521990741</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5342,10 +5226,8 @@
           <t>4271109661</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-03-15 22:09:14</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44270.9230787037</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5421,10 +5303,8 @@
           <t>4270875506</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-03-15 22:05:15</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44270.9203125</v>
       </c>
       <c r="I69" t="n">
         <v>1</v>
@@ -5484,10 +5364,8 @@
           <t>4271079388</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-03-15 22:03:28</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44270.91907407407</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5555,10 +5433,8 @@
           <t>4270030844</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-03-15 21:58:45</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44270.91579861111</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5626,10 +5502,8 @@
           <t>4270119253</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-03-15 21:58:24</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44270.91555555556</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5705,10 +5579,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-03-15 21:55:39</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44270.91364583333</v>
       </c>
       <c r="I73" t="n">
         <v>1</v>
@@ -5776,10 +5648,8 @@
           <t>4271034482</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-03-15 21:54:56</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44270.91314814815</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5847,10 +5717,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-03-15 21:53:56</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44270.91245370371</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5918,10 +5786,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-03-15 21:51:08</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44270.91050925926</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5981,10 +5847,8 @@
           <t>4271015547</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-03-15 21:49:40</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44270.90949074074</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6044,10 +5908,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-03-15 21:43:06</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44270.90493055555</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6115,10 +5977,8 @@
           <t>4270068987</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-03-15 21:42:48</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44270.90472222222</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6190,10 +6050,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-03-15 21:40:44</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44270.90328703704</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6270,10 +6128,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-03-15 21:39:14</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44270.90224537037</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6337,10 +6193,8 @@
           <t>4270883858</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-03-15 21:24:38</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44270.89210648148</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6408,10 +6262,8 @@
           <t>4270875506</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-03-15 21:21:59</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44270.89026620371</v>
       </c>
       <c r="I83" t="n">
         <v>13</v>
@@ -6487,10 +6339,8 @@
           <t>4270841254</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-03-15 21:13:31</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44270.88438657407</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6566,10 +6416,8 @@
           <t>4270522013</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-03-15 21:13:09</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44270.88413194445</v>
       </c>
       <c r="I85" t="n">
         <v>1</v>
@@ -6629,10 +6477,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-03-15 21:11:29</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44270.88297453704</v>
       </c>
       <c r="I86" t="n">
         <v>1</v>
@@ -6708,10 +6554,8 @@
           <t>4270522013</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-03-15 21:10:48</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44270.8825</v>
       </c>
       <c r="I87" t="n">
         <v>1</v>
@@ -6779,10 +6623,8 @@
           <t>4270812169</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-03-15 21:07:55</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44270.88049768518</v>
       </c>
       <c r="I88" t="n">
         <v>2</v>
@@ -6846,10 +6688,8 @@
           <t>4270798543</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-03-15 21:05:44</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44270.87898148148</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6917,10 +6757,8 @@
           <t>4270474848</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-03-15 21:04:02</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44270.87780092593</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6996,10 +6834,8 @@
           <t>4270223061</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-03-15 20:55:50</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44270.87210648148</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7063,10 +6899,8 @@
           <t>4270028445</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-03-15 20:47:55</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44270.8666087963</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7144,10 +6978,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-03-15 20:47:51</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44270.8665625</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7215,10 +7047,8 @@
           <t>4270715677</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-03-15 20:47:31</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44270.86633101852</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7286,10 +7116,8 @@
           <t>4270028445</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-03-15 20:47:31</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44270.86633101852</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7357,10 +7185,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-03-15 20:46:32</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44270.86564814814</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7424,10 +7250,8 @@
           <t>4270028445</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-03-15 20:44:06</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44270.86395833334</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7495,10 +7319,8 @@
           <t>4270028445</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-03-15 20:41:54</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44270.86243055556</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7566,10 +7388,8 @@
           <t>4270028445</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-03-15 20:40:34</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44270.86150462963</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7637,10 +7457,8 @@
           <t>4270101374</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-03-15 20:38:06</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44270.85979166667</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7704,10 +7522,8 @@
           <t>4270522013</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-03-15 20:37:17</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44270.85922453704</v>
       </c>
       <c r="I101" t="n">
         <v>9</v>
@@ -7783,10 +7599,8 @@
           <t>4270522013</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-03-15 20:33:55</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44270.85688657407</v>
       </c>
       <c r="I102" t="n">
         <v>3</v>
@@ -7862,10 +7676,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-03-15 20:31:35</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44270.8552662037</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7933,10 +7745,8 @@
           <t>4270028445</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-03-15 20:31:31</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44270.8552199074</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8004,10 +7814,8 @@
           <t>4270028445</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-03-15 20:30:08</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44270.85425925926</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8075,10 +7883,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-03-15 20:29:40</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44270.85393518519</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8146,10 +7952,8 @@
           <t>4270028445</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-03-15 20:27:51</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44270.85267361111</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8217,10 +8021,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-03-15 20:24:18</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44270.85020833334</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8296,10 +8098,8 @@
           <t>4270068987</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-03-15 20:23:04</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44270.84935185185</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8367,10 +8167,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-03-15 20:22:35</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44270.84901620371</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8438,10 +8236,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-03-15 20:21:29</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44270.84825231481</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8517,10 +8313,8 @@
           <t>4270522013</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-03-15 20:19:24</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44270.84680555556</v>
       </c>
       <c r="I112" t="n">
         <v>7</v>
@@ -8588,10 +8382,8 @@
           <t>4270474848</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-03-15 20:19:02</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44270.84655092593</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8663,10 +8455,8 @@
           <t>4270559787</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-03-15 20:15:52</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44270.84435185185</v>
       </c>
       <c r="I114" t="n">
         <v>1</v>
@@ -8735,10 +8525,8 @@
           <t>4270558384</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-03-15 20:14:56</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44270.8437037037</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8810,10 +8598,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-03-15 20:13:44</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44270.84287037037</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8877,10 +8663,8 @@
           <t>4270336514</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-03-15 20:12:58</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44270.84233796296</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8956,10 +8740,8 @@
           <t>4270547570</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-03-15 20:12:12</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44270.84180555555</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9028,10 +8810,8 @@
           <t>4270524016</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-03-15 20:07:39</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44270.83864583333</v>
       </c>
       <c r="I119" t="n">
         <v>2</v>
@@ -9107,10 +8887,8 @@
           <t>4270523278</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-03-15 20:07:12</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44270.83833333333</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9174,10 +8952,8 @@
           <t>4270522013</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-03-15 20:06:24</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44270.83777777778</v>
       </c>
       <c r="I121" t="n">
         <v>14</v>
@@ -9253,10 +9029,8 @@
           <t>4270028445</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-03-15 20:06:07</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44270.83758101852</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9324,10 +9098,8 @@
           <t>4270513676</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-03-15 20:05:42</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44270.83729166666</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9403,10 +9175,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-03-15 20:05:35</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44270.83721064815</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9474,10 +9244,8 @@
           <t>4270508894</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-03-15 20:04:26</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44270.83641203704</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9545,10 +9313,8 @@
           <t>4270100103</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-03-15 20:01:02</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44270.83405092593</v>
       </c>
       <c r="I126" t="n">
         <v>1</v>
@@ -9620,10 +9386,8 @@
           <t>4270059920</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:59:28</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44270.83296296297</v>
       </c>
       <c r="I127" t="n">
         <v>1</v>
@@ -9687,10 +9451,8 @@
           <t>4270474848</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:57:53</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44270.83186342593</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9766,10 +9528,8 @@
           <t>4270462420</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:54:18</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44270.829375</v>
       </c>
       <c r="I129" t="n">
         <v>1</v>
@@ -9836,10 +9596,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:49:11</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44270.82582175926</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9907,10 +9665,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:47:51</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44270.82489583334</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -9974,10 +9730,8 @@
           <t>4270012762</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:47:31</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44270.82466435185</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10041,10 +9795,8 @@
           <t>4270428139</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:47:05</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44270.82436342593</v>
       </c>
       <c r="I133" t="n">
         <v>4</v>
@@ -10112,10 +9864,8 @@
           <t>4270423413</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:46:42</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44270.82409722222</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10191,10 +9941,8 @@
           <t>4270100103</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:46:34</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44270.82400462963</v>
       </c>
       <c r="I135" t="n">
         <v>2</v>
@@ -10263,10 +10011,8 @@
           <t>4270028445</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:44:37</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44270.82265046296</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10334,10 +10080,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:43:40</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44270.82199074074</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10405,10 +10149,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:43:11</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44270.82165509259</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10484,10 +10226,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:42:38</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44270.82127314815</v>
       </c>
       <c r="I139" t="n">
         <v>1</v>
@@ -10559,10 +10299,8 @@
           <t>4270410953</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:42:14</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44270.82099537037</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10638,10 +10376,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:40:58</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44270.82011574074</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10705,10 +10441,8 @@
           <t>4270401011</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:40:25</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44270.8197337963</v>
       </c>
       <c r="I142" t="n">
         <v>1</v>
@@ -10784,10 +10518,8 @@
           <t>4270223061</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:38:58</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44270.81872685185</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10859,10 +10591,8 @@
           <t>4270376234</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:35:25</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44270.81626157407</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10934,10 +10664,8 @@
           <t>4270372523</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:35:15</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44270.81614583333</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11006,10 +10734,8 @@
           <t>4270372523</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:34:54</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44270.81590277778</v>
       </c>
       <c r="I146" t="n">
         <v>4</v>
@@ -11077,10 +10803,8 @@
           <t>4270100103</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:33:17</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44270.81478009259</v>
       </c>
       <c r="I147" t="n">
         <v>3</v>
@@ -11148,10 +10872,8 @@
           <t>4270362627</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:33:06</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44270.81465277778</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11215,10 +10937,8 @@
           <t>4270362300</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:32:53</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44270.81450231482</v>
       </c>
       <c r="I149" t="n">
         <v>1</v>
@@ -11286,10 +11006,8 @@
           <t>4270100103</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:32:48</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44270.81444444445</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11357,10 +11075,8 @@
           <t>4270028445</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:32:11</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44270.8140162037</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11428,10 +11144,8 @@
           <t>4270242909</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:30:03</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44270.81253472222</v>
       </c>
       <c r="I152" t="n">
         <v>3</v>
@@ -11502,10 +11216,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:29:20</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44270.81203703704</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11565,10 +11277,8 @@
           <t>4270059920</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:28:05</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44270.81116898148</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11644,10 +11354,8 @@
           <t>4270050554</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:27:47</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44270.81096064814</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11715,10 +11423,8 @@
           <t>4270100103</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:27:15</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44270.81059027778</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11786,10 +11492,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:26:42</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44270.81020833334</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11853,10 +11557,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:26:36</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44270.81013888889</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11920,10 +11622,8 @@
           <t>4270336514</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:25:50</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44270.80960648148</v>
       </c>
       <c r="I159" t="n">
         <v>2</v>
@@ -12000,10 +11700,8 @@
           <t>4270330442</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:25:02</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44270.80905092593</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12079,10 +11777,8 @@
           <t>4270324181</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:24:13</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44270.8084837963</v>
       </c>
       <c r="I161" t="n">
         <v>3</v>
@@ -12154,10 +11850,8 @@
           <t>4270053636</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:23:52</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44270.80824074074</v>
       </c>
       <c r="I162" t="n">
         <v>2</v>
@@ -12225,10 +11919,8 @@
           <t>4270119253</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:23:11</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44270.8077662037</v>
       </c>
       <c r="I163" t="n">
         <v>1</v>
@@ -12296,10 +11988,8 @@
           <t>4270028445</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:23:05</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44270.80769675926</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12367,10 +12057,8 @@
           <t>4270211940</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:22:14</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44270.80710648148</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12434,10 +12122,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:21:46</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44270.80678240741</v>
       </c>
       <c r="I166" t="n">
         <v>1</v>
@@ -12497,10 +12183,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:20:11</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44270.80568287037</v>
       </c>
       <c r="I167" t="n">
         <v>1</v>
@@ -12564,10 +12248,8 @@
           <t>4270301556</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:19:08</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44270.8049537037</v>
       </c>
       <c r="I168" t="n">
         <v>1</v>
@@ -12635,10 +12317,8 @@
           <t>4270289293</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:17:37</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44270.80390046296</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12714,10 +12394,8 @@
           <t>4270295936</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:17:32</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44270.80384259259</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12793,10 +12471,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:17:25</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44270.80376157408</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12872,10 +12548,8 @@
           <t>4270100103</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:16:55</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44270.80341435185</v>
       </c>
       <c r="I172" t="n">
         <v>1</v>
@@ -12951,10 +12625,8 @@
           <t>4270292911</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:16:46</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44270.80331018518</v>
       </c>
       <c r="I173" t="n">
         <v>1</v>
@@ -13027,10 +12699,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:16:45</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44270.80329861111</v>
       </c>
       <c r="I174" t="n">
         <v>2</v>
@@ -13098,10 +12768,8 @@
           <t>4270283087</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:15:38</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44270.80252314815</v>
       </c>
       <c r="I175" t="n">
         <v>5</v>
@@ -13169,10 +12837,8 @@
           <t>4270283014</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:15:35</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44270.80248842593</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13241,10 +12907,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:13:39</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44270.80114583333</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13312,10 +12976,8 @@
           <t>4270277808</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:13:25</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44270.8009837963</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13391,10 +13053,8 @@
           <t>4270059920</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:13:12</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44270.80083333333</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13462,10 +13122,8 @@
           <t>4270211940</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:12:54</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44270.800625</v>
       </c>
       <c r="I180" t="n">
         <v>6</v>
@@ -13529,10 +13187,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:12:13</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44270.80015046296</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13604,10 +13260,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:11:28</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44270.79962962963</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13672,10 +13326,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:10:47</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44270.79915509259</v>
       </c>
       <c r="I183" t="n">
         <v>2</v>
@@ -13739,10 +13391,8 @@
           <t>4270242909</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:10:15</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44270.79878472222</v>
       </c>
       <c r="I184" t="n">
         <v>4</v>
@@ -13806,10 +13456,8 @@
           <t>4270028445</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:09:36</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44270.79833333333</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13881,10 +13529,8 @@
           <t>4270257391</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:09:32</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44270.79828703704</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -13948,10 +13594,8 @@
           <t>4270028445</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:08:30</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44270.79756944445</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14023,10 +13667,8 @@
           <t>4270251007</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:07:34</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44270.7969212963</v>
       </c>
       <c r="I188" t="n">
         <v>3</v>
@@ -14094,10 +13736,8 @@
           <t>4270059920</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:07:25</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44270.79681712963</v>
       </c>
       <c r="I189" t="n">
         <v>3</v>
@@ -14165,10 +13805,8 @@
           <t>4270250604</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:07:17</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44270.79672453704</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14236,10 +13874,8 @@
           <t>4270242909</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:06:30</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44270.79618055555</v>
       </c>
       <c r="I191" t="n">
         <v>4</v>
@@ -14307,10 +13943,8 @@
           <t>4270247164</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:06:24</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44270.79611111111</v>
       </c>
       <c r="I192" t="n">
         <v>19</v>
@@ -14378,10 +14012,8 @@
           <t>4270239089</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:06:19</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44270.79605324074</v>
       </c>
       <c r="I193" t="n">
         <v>2</v>
@@ -14445,10 +14077,8 @@
           <t>4270242416</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:06:09</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44270.7959375</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14524,10 +14154,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:05:52</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44270.79574074074</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14599,10 +14227,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:05:21</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44270.79538194444</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14670,10 +14296,8 @@
           <t>4270223964</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:02:55</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44270.79369212963</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14737,10 +14361,8 @@
           <t>4270223061</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:02:21</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44270.79329861111</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14804,10 +14426,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:00:54</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44270.79229166666</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14879,10 +14499,8 @@
           <t>4270218695</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:00:52</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44270.79226851852</v>
       </c>
       <c r="I200" t="n">
         <v>1</v>
@@ -14954,10 +14572,8 @@
           <t>4270214050</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-03-15 19:00:27</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44270.79197916666</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15025,10 +14641,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:59:14</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44270.79113425926</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15092,10 +14706,8 @@
           <t>4270212216</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:59:14</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44270.79113425926</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15171,10 +14783,8 @@
           <t>4270211940</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:59:04</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44270.79101851852</v>
       </c>
       <c r="I204" t="n">
         <v>11</v>
@@ -15246,10 +14856,8 @@
           <t>4270028445</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:58:55</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44270.79091435186</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15326,10 +14934,8 @@
           <t>4270047280</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:58:45</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44270.79079861111</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15397,10 +15003,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:58:40</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44270.79074074074</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15460,10 +15064,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:58:28</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44270.79060185186</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15540,10 +15142,8 @@
           <t>4270204449</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:58:09</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44270.79038194445</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15619,10 +15219,8 @@
           <t>4270205951</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:57:43</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44270.79008101852</v>
       </c>
       <c r="I210" t="n">
         <v>1</v>
@@ -15698,10 +15296,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:55:50</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44270.78877314815</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15773,10 +15369,8 @@
           <t>4270028445</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:55:30</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44270.78854166667</v>
       </c>
       <c r="I212" t="n">
         <v>5</v>
@@ -15844,10 +15438,8 @@
           <t>4270195810</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:54:59</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44270.78818287037</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -15919,10 +15511,8 @@
           <t>4270052873</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:54:48</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44270.78805555555</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -15990,10 +15580,8 @@
           <t>4270190306</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:54:03</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44270.78753472222</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16069,10 +15657,8 @@
           <t>4270183584</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:53:31</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44270.78716435185</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16136,10 +15722,8 @@
           <t>4270179329</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:53:26</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44270.78710648148</v>
       </c>
       <c r="I217" t="n">
         <v>1</v>
@@ -16203,10 +15787,8 @@
           <t>4270179176</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:53:21</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44270.78704861111</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16278,10 +15860,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:52:09</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44270.78621527777</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16345,10 +15925,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:52:00</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44270.78611111111</v>
       </c>
       <c r="I220" t="n">
         <v>4</v>
@@ -16424,10 +16002,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:50:39</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44270.78517361111</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16491,10 +16067,8 @@
           <t>4270164270</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:50:14</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44270.78488425926</v>
       </c>
       <c r="I222" t="n">
         <v>1</v>
@@ -16573,10 +16147,8 @@
           <t>4270100103</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:49:55</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44270.78466435185</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16644,10 +16216,8 @@
           <t>4270028445</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:49:31</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44270.78438657407</v>
       </c>
       <c r="I224" t="n">
         <v>1</v>
@@ -16711,10 +16281,8 @@
           <t>4270021036</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:49:30</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44270.784375</v>
       </c>
       <c r="I225" t="n">
         <v>37</v>
@@ -16786,10 +16354,8 @@
           <t>4270170634</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:49:19</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44270.78424768519</v>
       </c>
       <c r="I226" t="n">
         <v>1</v>
@@ -16857,10 +16423,8 @@
           <t>4270162139</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:48:55</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44270.78396990741</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -16920,10 +16484,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:47:53</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44270.78325231482</v>
       </c>
       <c r="I228" t="n">
         <v>1</v>
@@ -16987,10 +16549,8 @@
           <t>4270152242</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:46:02</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44270.78196759259</v>
       </c>
       <c r="I229" t="n">
         <v>1</v>
@@ -17066,10 +16626,8 @@
           <t>4270144999</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:45:46</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44270.78178240741</v>
       </c>
       <c r="I230" t="n">
         <v>1</v>
@@ -17133,10 +16691,8 @@
           <t>4270151444</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:45:32</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44270.78162037037</v>
       </c>
       <c r="I231" t="n">
         <v>7</v>
@@ -17204,10 +16760,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:44:03</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44270.78059027778</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17271,10 +16825,8 @@
           <t>4270030844</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:44:02</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44270.78057870371</v>
       </c>
       <c r="I233" t="n">
         <v>3</v>
@@ -17343,10 +16895,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:43:44</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44270.78037037037</v>
       </c>
       <c r="I234" t="n">
         <v>2</v>
@@ -17418,10 +16968,8 @@
           <t>4270141905</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:43:43</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44270.7803587963</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17493,10 +17041,8 @@
           <t>4270129891</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:42:23</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44270.77943287037</v>
       </c>
       <c r="I236" t="n">
         <v>3</v>
@@ -17568,10 +17114,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:42:20</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44270.77939814814</v>
       </c>
       <c r="I237" t="n">
         <v>1</v>
@@ -17639,10 +17183,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:41:47</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44270.77901620371</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17716,10 +17258,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:41:40</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44270.77893518518</v>
       </c>
       <c r="I239" t="n">
         <v>3</v>
@@ -17783,10 +17323,8 @@
           <t>4270130319</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:41:13</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44270.77862268518</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17862,10 +17400,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:40:34</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44270.7781712963</v>
       </c>
       <c r="I241" t="n">
         <v>1</v>
@@ -17937,10 +17473,8 @@
           <t>4270119253</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:40:31</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44270.77813657407</v>
       </c>
       <c r="I242" t="n">
         <v>1</v>
@@ -18016,10 +17550,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:40:13</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44270.77792824074</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18095,10 +17627,8 @@
           <t>4270059920</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:38:35</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44270.77679398148</v>
       </c>
       <c r="I244" t="n">
         <v>1</v>
@@ -18174,10 +17704,8 @@
           <t>4270113738</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:38:19</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44270.7766087963</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18245,10 +17773,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:38:08</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44270.77648148148</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18320,10 +17846,8 @@
           <t>4270100103</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:37:41</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44270.77616898148</v>
       </c>
       <c r="I247" t="n">
         <v>1</v>
@@ -18399,10 +17923,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:36:23</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44270.7752662037</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18466,10 +17988,8 @@
           <t>4270107687</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:36:12</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44270.77513888889</v>
       </c>
       <c r="I249" t="n">
         <v>4</v>
@@ -18545,10 +18065,8 @@
           <t>4270101374</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:35:23</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44270.77457175926</v>
       </c>
       <c r="I250" t="n">
         <v>6</v>
@@ -18627,10 +18145,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:35:09</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44270.77440972222</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18703,10 +18219,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:34:39</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44270.7740625</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18782,10 +18296,8 @@
           <t>4270100103</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:34:30</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44270.77395833333</v>
       </c>
       <c r="I253" t="n">
         <v>11</v>
@@ -18861,10 +18373,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:32:30</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44270.77256944445</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -18936,10 +18446,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:31:55</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44270.77216435185</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19016,10 +18524,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:31:46</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44270.77206018518</v>
       </c>
       <c r="I256" t="n">
         <v>2</v>
@@ -19095,10 +18601,8 @@
           <t>4270083459</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:31:25</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44270.77181712963</v>
       </c>
       <c r="I257" t="n">
         <v>1</v>
@@ -19174,10 +18678,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:31:24</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44270.77180555555</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19249,10 +18751,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:31:22</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44270.77178240741</v>
       </c>
       <c r="I259" t="n">
         <v>1</v>
@@ -19324,10 +18824,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:31:14</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44270.77168981481</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19399,10 +18897,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:30:57</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44270.77149305555</v>
       </c>
       <c r="I261" t="n">
         <v>1</v>
@@ -19479,10 +18975,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:30:28</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44270.77115740741</v>
       </c>
       <c r="I262" t="n">
         <v>26</v>
@@ -19546,10 +19040,8 @@
           <t>4270074218</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:30:25</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44270.77112268518</v>
       </c>
       <c r="I263" t="n">
         <v>1</v>
@@ -19635,10 +19127,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:29:56</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44270.77078703704</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19710,10 +19200,8 @@
           <t>4270052873</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:29:56</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44270.77078703704</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19773,10 +19261,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:29:31</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44270.77049768518</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19844,10 +19330,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:29:17</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44270.77033564815</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19911,10 +19395,8 @@
           <t>4270019948</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:29:01</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44270.77015046297</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -19974,10 +19456,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:28:39</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44270.76989583333</v>
       </c>
       <c r="I269" t="n">
         <v>4</v>
@@ -20053,10 +19533,8 @@
           <t>4270068987</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:28:27</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44270.76975694444</v>
       </c>
       <c r="I270" t="n">
         <v>4</v>
@@ -20128,10 +19606,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:28:18</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44270.76965277778</v>
       </c>
       <c r="I271" t="n">
         <v>8</v>
@@ -20200,10 +19676,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:28:03</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44270.76947916667</v>
       </c>
       <c r="I272" t="n">
         <v>1</v>
@@ -20275,10 +19749,8 @@
           <t>4270067707</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:27:35</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44270.7691550926</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20350,10 +19822,8 @@
           <t>4270059920</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:27:30</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44270.76909722222</v>
       </c>
       <c r="I274" t="n">
         <v>78</v>
@@ -20421,10 +19891,8 @@
           <t>4270067509</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:27:27</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44270.7690625</v>
       </c>
       <c r="I275" t="n">
         <v>17</v>
@@ -20484,10 +19952,8 @@
           <t>4270028445</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:26:58</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44270.76872685185</v>
       </c>
       <c r="I276" t="n">
         <v>1</v>
@@ -20559,10 +20025,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:26:47</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44270.76859953703</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20630,10 +20094,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:26:02</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44270.7680787037</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20705,10 +20167,8 @@
           <t>4270062128</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:25:47</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44270.76790509259</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20780,10 +20240,8 @@
           <t>4270061613</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:25:28</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44270.76768518519</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20859,10 +20317,8 @@
           <t>4270061567</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:25:26</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44270.76766203704</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -20938,10 +20394,8 @@
           <t>4270054266</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:25:21</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44270.76760416666</v>
       </c>
       <c r="I282" t="n">
         <v>2</v>
@@ -21017,10 +20471,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:25:16</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44270.76754629629</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21092,10 +20544,8 @@
           <t>4270030844</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:25:13</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44270.76751157407</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21167,10 +20617,8 @@
           <t>4270056198</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:25:05</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44270.76741898148</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21238,10 +20686,8 @@
           <t>4270053636</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:24:56</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44270.76731481482</v>
       </c>
       <c r="I286" t="n">
         <v>7</v>
@@ -21313,10 +20759,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:24:32</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44270.76703703704</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21388,10 +20832,8 @@
           <t>4270028445</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:24:30</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44270.76701388889</v>
       </c>
       <c r="I288" t="n">
         <v>2</v>
@@ -21459,10 +20901,8 @@
           <t>4270052951</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:24:28</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44270.76699074074</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21534,10 +20974,8 @@
           <t>4270012762</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:24:27</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44270.76697916666</v>
       </c>
       <c r="I290" t="n">
         <v>3</v>
@@ -21605,10 +21043,8 @@
           <t>4270052873</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:24:25</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44270.76695601852</v>
       </c>
       <c r="I291" t="n">
         <v>16</v>
@@ -21680,10 +21116,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:23:27</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44270.76628472222</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21756,10 +21190,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:23:25</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44270.76626157408</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21823,10 +21255,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:23:17</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44270.76616898148</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -21902,10 +21332,8 @@
           <t>4270050909</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:23:05</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44270.76603009259</v>
       </c>
       <c r="I295" t="n">
         <v>15</v>
@@ -21981,10 +21409,8 @@
           <t>4270050893</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:23:04</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44270.76601851852</v>
       </c>
       <c r="I296" t="n">
         <v>5</v>
@@ -22052,10 +21478,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:22:59</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44270.76596064815</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22123,10 +21547,8 @@
           <t>4270050554</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:22:51</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44270.76586805555</v>
       </c>
       <c r="I298" t="n">
         <v>3</v>
@@ -22194,10 +21616,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:22:46</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44270.76581018518</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22273,10 +21693,8 @@
           <t>4270042697</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:22:44</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44270.76578703704</v>
       </c>
       <c r="I300" t="n">
         <v>1</v>
@@ -22351,10 +21769,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:22:39</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44270.76572916667</v>
       </c>
       <c r="I301" t="n">
         <v>78</v>
@@ -22426,10 +21842,8 @@
           <t>4270047280</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:22:35</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44270.76568287037</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22505,10 +21919,8 @@
           <t>4270050018</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:22:31</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44270.76563657408</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22580,10 +21992,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:22:25</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44270.76556712963</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22652,10 +22062,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:21:57</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44270.76524305555</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22732,10 +22140,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:21:22</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44270.76483796296</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22807,10 +22213,8 @@
           <t>4270030844</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:21:18</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44270.76479166667</v>
       </c>
       <c r="I307" t="n">
         <v>1</v>
@@ -22870,10 +22274,8 @@
           <t>4270045359</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:21:18</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44270.76479166667</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -22949,10 +22351,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:21:13</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44270.7647337963</v>
       </c>
       <c r="I309" t="n">
         <v>3</v>
@@ -23020,10 +22420,8 @@
           <t>4270036806</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:20:17</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44270.76408564814</v>
       </c>
       <c r="I310" t="n">
         <v>19</v>
@@ -23090,10 +22488,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:20:15</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44270.7640625</v>
       </c>
       <c r="I311" t="n">
         <v>52</v>
@@ -23161,10 +22557,8 @@
           <t>4270033406</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:19:59</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44270.76387731481</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23232,10 +22626,8 @@
           <t>4270033322</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:19:56</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44270.76384259259</v>
       </c>
       <c r="I313" t="n">
         <v>6</v>
@@ -23311,10 +22703,8 @@
           <t>4270028445</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:19:46</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44270.76372685185</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23386,10 +22776,8 @@
           <t>4270012762</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:19:07</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44270.76327546296</v>
       </c>
       <c r="I315" t="n">
         <v>4</v>
@@ -23465,10 +22853,8 @@
           <t>4270000690</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:18:53</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44270.76311342593</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23540,10 +22926,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:18:42</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44270.76298611111</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23615,10 +22999,8 @@
           <t>4270031258</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:18:27</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44270.7628125</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23690,10 +23072,8 @@
           <t>4270030844</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:18:11</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44270.76262731481</v>
       </c>
       <c r="I319" t="n">
         <v>2</v>
@@ -23765,10 +23145,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:18:10</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44270.76261574074</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -23836,10 +23214,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:18:07</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44270.76258101852</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23911,10 +23287,8 @@
           <t>4270019948</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:17:34</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44270.76219907407</v>
       </c>
       <c r="I322" t="n">
         <v>1</v>
@@ -23990,10 +23364,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:17:30</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44270.76215277778</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -24061,10 +23433,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:17:26</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44270.76210648148</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -24136,10 +23506,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:17:21</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44270.76204861111</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24215,10 +23583,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:17:19</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44270.76202546297</v>
       </c>
       <c r="I326" t="n">
         <v>7</v>
@@ -24292,10 +23658,8 @@
           <t>4270014961</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:17:19</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44270.76202546297</v>
       </c>
       <c r="I327" t="n">
         <v>8</v>
@@ -24363,10 +23727,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:17:01</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44270.76181712963</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24434,10 +23796,8 @@
           <t>4270021941</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:16:56</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44270.76175925926</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24505,10 +23865,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:16:54</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44270.76173611111</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24584,10 +23942,8 @@
           <t>4270018834</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:16:49</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44270.76167824074</v>
       </c>
       <c r="I331" t="n">
         <v>1</v>
@@ -24655,10 +24011,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:16:48</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44270.76166666667</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24722,10 +24076,8 @@
           <t>4270021036</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:16:18</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44270.76131944444</v>
       </c>
       <c r="I333" t="n">
         <v>40</v>
@@ -24801,10 +24153,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:16:16</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44270.7612962963</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24880,10 +24230,8 @@
           <t>4270017437</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:15:53</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44270.7610300926</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -24951,10 +24299,8 @@
           <t>4270012762</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:15:50</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44270.76099537037</v>
       </c>
       <c r="I336" t="n">
         <v>27</v>
@@ -25022,10 +24368,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:15:46</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44270.76094907407</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -25093,10 +24437,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:15:36</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44270.76083333333</v>
       </c>
       <c r="I338" t="n">
         <v>219</v>
@@ -25165,10 +24507,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:15:31</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44270.76077546296</v>
       </c>
       <c r="I339" t="n">
         <v>9</v>
@@ -25244,10 +24584,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:15:14</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44270.7605787037</v>
       </c>
       <c r="I340" t="n">
         <v>4</v>
@@ -25324,10 +24662,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:15:08</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44270.76050925926</v>
       </c>
       <c r="I341" t="n">
         <v>2</v>
@@ -25399,10 +24735,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:15:06</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44270.76048611111</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25478,10 +24812,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:14:57</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44270.76038194444</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25553,10 +24885,8 @@
           <t>4270016068</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:14:56</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44270.76037037037</v>
       </c>
       <c r="I344" t="n">
         <v>17</v>
@@ -25616,10 +24946,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:14:55</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44270.76035879629</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25695,10 +25023,8 @@
           <t>4270008829</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:14:47</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44270.7602662037</v>
       </c>
       <c r="I346" t="n">
         <v>2</v>
@@ -25758,10 +25084,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:14:25</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44270.76001157407</v>
       </c>
       <c r="I347" t="n">
         <v>2</v>
@@ -25830,10 +25154,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:14:19</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44270.75994212963</v>
       </c>
       <c r="I348" t="n">
         <v>2</v>
@@ -25901,10 +25223,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:14:04</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44270.75976851852</v>
       </c>
       <c r="I349" t="n">
         <v>52</v>
@@ -25973,10 +25293,8 @@
           <t>4269984397</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:13:59</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44270.75971064815</v>
       </c>
       <c r="I350" t="n">
         <v>26</v>
@@ -26052,10 +25370,8 @@
           <t>4270000690</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:13:53</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44270.7596412037</v>
       </c>
       <c r="I351" t="n">
         <v>1</v>
@@ -26123,10 +25439,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:13:45</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44270.75954861111</v>
       </c>
       <c r="I352" t="n">
         <v>3</v>
@@ -26194,10 +25508,8 @@
           <t>4270006976</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:13:33</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44270.75940972222</v>
       </c>
       <c r="I353" t="n">
         <v>13</v>
@@ -26273,10 +25585,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:13:14</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44270.75918981482</v>
       </c>
       <c r="I354" t="n">
         <v>3</v>
@@ -26340,10 +25650,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:13:01</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44270.75903935185</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26419,10 +25727,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:12:55</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44270.75896990741</v>
       </c>
       <c r="I356" t="n">
         <v>2</v>
@@ -26490,10 +25796,8 @@
           <t>4270003046</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:12:53</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44270.75894675926</v>
       </c>
       <c r="I357" t="n">
         <v>4</v>
@@ -26569,10 +25873,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:12:23</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44270.75859953704</v>
       </c>
       <c r="I358" t="n">
         <v>6</v>
@@ -26640,10 +25942,8 @@
           <t>4269997682</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:12:18</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44270.75854166667</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26719,10 +26019,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:12:15</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44270.75850694445</v>
       </c>
       <c r="I360" t="n">
         <v>22</v>
@@ -26798,10 +26096,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:12:05</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44270.7583912037</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26873,10 +26169,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:11:52</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44270.75824074074</v>
       </c>
       <c r="I362" t="n">
         <v>5</v>
@@ -26952,10 +26246,8 @@
           <t>4269994306</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:11:43</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44270.75813657408</v>
       </c>
       <c r="I363" t="n">
         <v>4</v>
@@ -27027,10 +26319,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:11:35</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44270.75804398148</v>
       </c>
       <c r="I364" t="n">
         <v>7</v>
@@ -27102,10 +26392,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:11:24</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44270.75791666667</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -27173,10 +26461,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:11:24</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44270.75791666667</v>
       </c>
       <c r="I366" t="n">
         <v>60</v>
@@ -27248,10 +26534,8 @@
           <t>4270000690</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:11:16</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44270.75782407408</v>
       </c>
       <c r="I367" t="n">
         <v>3</v>
@@ -27323,10 +26607,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:11:08</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44270.75773148148</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -27396,10 +26678,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:11:00</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44270.75763888889</v>
       </c>
       <c r="I369" t="n">
         <v>193</v>
@@ -27467,10 +26747,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:10:59</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44270.75762731482</v>
       </c>
       <c r="I370" t="n">
         <v>2</v>
@@ -27542,10 +26820,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:10:48</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44270.7575</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27617,10 +26893,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:10:46</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44270.75747685185</v>
       </c>
       <c r="I372" t="n">
         <v>15</v>
@@ -27688,10 +26962,8 @@
           <t>4269995313</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:10:37</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44270.75737268518</v>
       </c>
       <c r="I373" t="n">
         <v>2</v>
@@ -27755,10 +27027,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:10:36</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44270.75736111111</v>
       </c>
       <c r="I374" t="n">
         <v>8</v>
@@ -27834,10 +27104,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:10:29</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44270.75728009259</v>
       </c>
       <c r="I375" t="n">
         <v>2</v>
@@ -27905,10 +27173,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:10:13</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44270.75709490741</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -27972,10 +27238,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:10:11</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44270.75707175926</v>
       </c>
       <c r="I377" t="n">
         <v>4</v>
@@ -28047,10 +27311,8 @@
           <t>4269984397</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:09:59</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44270.75693287037</v>
       </c>
       <c r="I378" t="n">
         <v>4</v>
@@ -28122,10 +27384,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:09:52</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44270.75685185185</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -28197,10 +27457,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:09:46</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44270.75678240741</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28276,10 +27534,8 @@
           <t>4269983808</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:09:33</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44270.75663194444</v>
       </c>
       <c r="I381" t="n">
         <v>3</v>
@@ -28351,10 +27607,8 @@
           <t>4269988052</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:09:28</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44270.75657407408</v>
       </c>
       <c r="I382" t="n">
         <v>9</v>
@@ -28422,10 +27676,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:09:25</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44270.75653935185</v>
       </c>
       <c r="I383" t="n">
         <v>2</v>
@@ -28493,10 +27745,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:09:17</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44270.75644675926</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28564,10 +27814,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:09:16</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44270.75643518518</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28635,10 +27883,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:08:54</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44270.75618055555</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28702,10 +27948,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:08:50</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44270.75613425926</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -28781,10 +28025,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:08:47</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44270.75609953704</v>
       </c>
       <c r="I388" t="n">
         <v>4</v>
@@ -28856,10 +28098,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:08:36</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44270.75597222222</v>
       </c>
       <c r="I389" t="n">
         <v>231</v>
@@ -28936,10 +28176,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:08:21</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44270.75579861111</v>
       </c>
       <c r="I390" t="n">
         <v>2</v>
@@ -29015,10 +28253,8 @@
           <t>4269986195</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:08:14</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44270.75571759259</v>
       </c>
       <c r="I391" t="n">
         <v>15</v>
@@ -29090,10 +28326,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:08:08</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44270.75564814815</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -29171,10 +28405,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:08:02</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44270.75557870371</v>
       </c>
       <c r="I393" t="n">
         <v>1157</v>
@@ -29242,10 +28474,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:07:54</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44270.75548611111</v>
       </c>
       <c r="I394" t="n">
         <v>87</v>
@@ -29309,10 +28539,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:07:33</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44270.75524305556</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29380,10 +28608,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:07:32</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44270.75523148148</v>
       </c>
       <c r="I396" t="n">
         <v>5</v>
@@ -29451,10 +28677,8 @@
           <t>4269978142</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:07:31</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44270.75521990741</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29530,10 +28754,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:07:22</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44270.75511574074</v>
       </c>
       <c r="I398" t="n">
         <v>1281</v>
@@ -29609,10 +28831,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:07:21</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44270.75510416667</v>
       </c>
       <c r="I399" t="n">
         <v>125</v>
@@ -29681,10 +28901,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:07:08</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44270.7549537037</v>
       </c>
       <c r="I400" t="n">
         <v>261</v>
@@ -29760,10 +28978,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:07:08</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44270.7549537037</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29839,10 +29055,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:07:04</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44270.7549074074</v>
       </c>
       <c r="I402" t="n">
         <v>110</v>
@@ -29910,10 +29124,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:07:02</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44270.75488425926</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -29983,10 +29195,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:06:52</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44270.75476851852</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -30058,10 +29268,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:06:50</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44270.75474537037</v>
       </c>
       <c r="I405" t="n">
         <v>135</v>
@@ -30125,10 +29333,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:06:38</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44270.75460648148</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -30188,10 +29394,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:06:34</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44270.75456018518</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -30255,10 +29459,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:06:27</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44270.75447916667</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -30330,10 +29532,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:06:13</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44270.75431712963</v>
       </c>
       <c r="I409" t="n">
         <v>1</v>
@@ -30405,10 +29605,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:06:12</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44270.75430555556</v>
       </c>
       <c r="I410" t="n">
         <v>19</v>
@@ -30480,10 +29678,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:06:08</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44270.75425925926</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30551,10 +29747,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:06:06</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44270.75423611111</v>
       </c>
       <c r="I412" t="n">
         <v>8</v>
@@ -30626,10 +29820,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:06:04</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44270.75421296297</v>
       </c>
       <c r="I413" t="n">
         <v>2</v>
@@ -30701,10 +29893,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:06:01</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44270.75417824074</v>
       </c>
       <c r="I414" t="n">
         <v>567</v>
@@ -30768,10 +29958,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:05:59</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44270.7541550926</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -30843,10 +30031,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:05:51</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44270.7540625</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
@@ -30910,10 +30096,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:05:44</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44270.75398148148</v>
       </c>
       <c r="I417" t="n">
         <v>5</v>
